--- a/biology/Zoologie/Antonio_Curò/Antonio_Curò.xlsx
+++ b/biology/Zoologie/Antonio_Curò/Antonio_Curò.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antonio_Cur%C3%B2</t>
+          <t>Antonio_Curò</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Curò est un ingénieur et un entomologiste amateur italien, né le 21 juin 1828 à Bergame et mort le 10 mai 1906 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antonio_Cur%C3%B2</t>
+          <t>Antonio_Curò</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lépidoptérologiste constitue une importante collection de papillons et fait notamment paraître de 1875 à 1889 son Saggio di un Catalogo dei Lepidotteri d’Italia. Il dirige également la section de Bergame du Club alpin italien.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antonio_Cur%C3%B2</t>
+          <t>Antonio_Curò</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cesare Conci et Roberto Poggi (1996), Iconography of Italian Entomologists, with essential biographical data. Memorie della Società entomologica Italiana, 75 : 159-382.
  Portail de l’histoire de la zoologie et de la botanique   Portail du XIXe siècle   Portail de l’Italie   Portail de l’entomologie   Portail de la zoologie                 </t>
